--- a/data_output/HBSC_DNSSSU/MPALC/insp_desc_20211021_None_[8, 40, 3, 20]_[0.05, 0.78]_[True, 10]_[0.9, 80]_['mov_prev_slope', 'value', 0.0, False, 'count', 0.01, 'max', 1]_mov_prev.xlsx
+++ b/data_output/HBSC_DNSSSU/MPALC/insp_desc_20211021_None_[8, 40, 3, 20]_[0.05, 0.78]_[True, 10]_[0.9, 80]_['mov_prev_slope', 'value', 0.0, False, 'count', 0.01, 'max', 1]_mov_prev.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t>sg</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>cov</t>
@@ -610,13 +613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +638,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -644,19 +650,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
+        <v>3362</v>
+      </c>
+      <c r="E2">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.9049879892609863</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -664,22 +673,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
+        <v>3362</v>
+      </c>
+      <c r="E3">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -687,22 +699,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>2939</v>
+      </c>
+      <c r="E4">
         <v>0.08305779285007772</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.1258179654967281</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -710,19 +725,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
+        <v>5294</v>
+      </c>
+      <c r="E5">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -730,22 +748,25 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
+        <v>3704</v>
+      </c>
+      <c r="E6">
         <v>0.1046771230747492</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3003400075557234</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -753,19 +774,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
+        <v>5294</v>
+      </c>
+      <c r="E7">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -773,22 +797,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
+        <v>2758</v>
+      </c>
+      <c r="E8">
         <v>0.07794263105835807</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4790328673970533</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -796,22 +823,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
+        <v>2320</v>
+      </c>
+      <c r="E9">
         <v>0.0655645047336442</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1588107324147934</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -819,19 +849,22 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
+        <v>3362</v>
+      </c>
+      <c r="E10">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9049879892609863</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -839,22 +872,25 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
+        <v>3362</v>
+      </c>
+      <c r="E11">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -862,19 +898,22 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
+        <v>10010</v>
+      </c>
+      <c r="E12">
         <v>0.2828882294757666</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.7171117705242334</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -882,22 +921,25 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
+        <v>2532</v>
+      </c>
+      <c r="E13">
         <v>0.07155574395930479</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.747052947052947</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -905,19 +947,22 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
+        <v>5294</v>
+      </c>
+      <c r="E14">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -925,22 +970,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
+        <v>2536</v>
+      </c>
+      <c r="E15">
         <v>0.07166878620884555</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.5209671326029468</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.3333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -948,22 +996,25 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
+        <v>2335</v>
+      </c>
+      <c r="E16">
         <v>0.06598841316942207</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0792586750788643</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -971,19 +1022,22 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
+        <v>5294</v>
+      </c>
+      <c r="E17">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -991,22 +1045,25 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18">
+        <v>2758</v>
+      </c>
+      <c r="E18">
         <v>0.07794263105835807</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.4790328673970533</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1014,22 +1071,25 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
+        <v>2758</v>
+      </c>
+      <c r="E19">
         <v>0.07794263105835807</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1037,19 +1097,22 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
+        <v>11297</v>
+      </c>
+      <c r="E20">
         <v>0.319259573265508</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1057,22 +1120,25 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
+        <v>2466</v>
+      </c>
+      <c r="E21">
         <v>0.06969054684188215</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.7817119589271488</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1080,19 +1146,22 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
+        <v>3362</v>
+      </c>
+      <c r="E22">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.9049879892609863</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1100,22 +1169,25 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
+        <v>3362</v>
+      </c>
+      <c r="E23">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1123,22 +1195,25 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
+        <v>2517</v>
+      </c>
+      <c r="E24">
         <v>0.07113183552352692</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.251338488994646</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1146,19 +1221,22 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
+        <v>5294</v>
+      </c>
+      <c r="E25">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1166,19 +1244,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
+        <v>5294</v>
+      </c>
+      <c r="E26">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1186,22 +1267,25 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
+        <v>3704</v>
+      </c>
+      <c r="E27">
         <v>0.1046771230747492</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.3003400075557234</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1209,22 +1293,25 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
+        <v>3126</v>
+      </c>
+      <c r="E28">
         <v>0.08834251801610853</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.1560475161987041</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1232,19 +1319,22 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
+        <v>18815</v>
+      </c>
+      <c r="E29">
         <v>0.5317224812773774</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.4682775187226226</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1252,19 +1342,22 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
+        <v>15868</v>
+      </c>
+      <c r="E30">
         <v>0.4484386039282182</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.5515613960717818</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1272,19 +1365,22 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
+        <v>3362</v>
+      </c>
+      <c r="E31">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.9049879892609863</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1292,22 +1388,25 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
+        <v>3362</v>
+      </c>
+      <c r="E32">
         <v>0.09501201073901371</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1315,22 +1414,25 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33">
+        <v>2526</v>
+      </c>
+      <c r="E33">
         <v>0.07138618058499364</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.2486615110053539</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1338,19 +1440,22 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34">
+        <v>5294</v>
+      </c>
+      <c r="E34">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1358,22 +1463,25 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
+        <v>2536</v>
+      </c>
+      <c r="E35">
         <v>0.07166878620884555</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.5209671326029468</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.3333333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1381,19 +1489,22 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
+        <v>5294</v>
+      </c>
+      <c r="E36">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1401,22 +1512,25 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37">
+        <v>2758</v>
+      </c>
+      <c r="E37">
         <v>0.07794263105835807</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.4790328673970533</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1424,22 +1538,25 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38">
+        <v>2358</v>
+      </c>
+      <c r="E38">
         <v>0.06663840610428147</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1450326323422771</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>-0.3333333333333333</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1447,19 +1564,22 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39">
+        <v>16809</v>
+      </c>
+      <c r="E39">
         <v>0.4750317931326833</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.5249682068673167</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1467,19 +1587,22 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40">
+        <v>14612</v>
+      </c>
+      <c r="E40">
         <v>0.4129433375724177</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.5870566624275824</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1487,19 +1610,22 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
+        <v>11297</v>
+      </c>
+      <c r="E41">
         <v>0.319259573265508</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1507,15 +1633,18 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42">
+        <v>4551</v>
+      </c>
+      <c r="E42">
         <v>0.1286138194150064</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.8713861805849936</v>
       </c>
     </row>
@@ -1534,69 +1663,69 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1661,7 +1790,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.0693818415969092</v>
@@ -1726,7 +1855,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.06565349544072949</v>
@@ -1791,7 +1920,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.8741820345032718</v>
@@ -1856,7 +1985,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.03912630579297246</v>
@@ -1921,7 +2050,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.05353575709149021</v>
@@ -1986,7 +2115,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.06030150753768844</v>
@@ -2051,7 +2180,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0.1739791485664639</v>
@@ -2116,7 +2245,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.6639219274168954</v>
@@ -2181,7 +2310,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.08143964271640615</v>
@@ -2246,7 +2375,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0.05680432131033281</v>
@@ -2311,7 +2440,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2376,7 +2505,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0.06188244593755293</v>
@@ -2441,7 +2570,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0.6426209798617373</v>
@@ -2506,7 +2635,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0.05715389071249276</v>
@@ -2571,7 +2700,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0.05057516858389528</v>
@@ -2636,7 +2765,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0.08160806221930113</v>
@@ -2701,7 +2830,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0.08540507111935683</v>
@@ -2766,7 +2895,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0.2601575639550323</v>
@@ -2831,7 +2960,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0.07107107107107107</v>
@@ -2909,157 +3038,157 @@
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:51">
